--- a/public/files/health/vault_Health_healthprotectioncrosstabs.xlsx
+++ b/public/files/health/vault_Health_healthprotectioncrosstabs.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNHCR\Dropbox\VASYR 2019 Core Group\7_Data Tabulations\4_VASyR_VAULT\Health\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stupalov\Dropbox\VASYR 2019 Core Group\7_Data Tabulations\4_VASyR_VAULT\Health_Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="METAData" sheetId="2" r:id="rId1"/>
     <sheet name="Health protection crosstabs" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Ref">METAData!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,8 +33,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Tamara Stupalova</author>
+  </authors>
+  <commentList>
+    <comment ref="A63" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tamara Stupalova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+individuals or households?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A72" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tamara Stupalova:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+individuals or households? </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="43">
   <si>
     <t>Yes</t>
   </si>
@@ -45,9 +106,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Row Valid N %</t>
-  </si>
-  <si>
     <t>Chapter</t>
   </si>
   <si>
@@ -75,33 +133,12 @@
     <t>vault_Health_healthprotectioncrosstabs.xlsx</t>
   </si>
   <si>
-    <t>Crosstabulation: HH legal residency status and receiving primary health care</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>HH that received the required primary health care assistance in the past 6 months</t>
-  </si>
-  <si>
     <t>All members of the household have legal residency status</t>
   </si>
   <si>
-    <t>At least one member in the household has a legal residency status</t>
-  </si>
-  <si>
-    <t>No member of the household have legal residency status</t>
-  </si>
-  <si>
-    <t>Crosstabulation: HH legal residency status and receiving hospital health care</t>
-  </si>
-  <si>
-    <t>HH that received the required hospital health care assistance in the past 6 months</t>
-  </si>
-  <si>
-    <t>Crosstabulation: Type of community interactions and receiving primary health care</t>
-  </si>
-  <si>
     <t>Quality of interactions between refugees in this town/village and members of the host community</t>
   </si>
   <si>
@@ -120,21 +157,12 @@
     <t xml:space="preserve"> Very negative</t>
   </si>
   <si>
-    <t>Crosstabulation: Type of community interactions and receiving hospital health care</t>
-  </si>
-  <si>
-    <t>Crosstabulation: Having a card to withdraw cash or buy food and receiving primary health care</t>
-  </si>
-  <si>
     <t>Having a card to withdraw cash or buy food</t>
   </si>
   <si>
     <t>Percentages calculated out of the total number of individuals</t>
   </si>
   <si>
-    <t>Crosstabulation: Having a card to withdraw cash or buy food and receiving hospital health care</t>
-  </si>
-  <si>
     <t>Health protection crosstabs</t>
   </si>
   <si>
@@ -154,6 +182,45 @@
   </si>
   <si>
     <t>Household legal residency status and receiving hospital health care</t>
+  </si>
+  <si>
+    <t>Households that received the required primary health care assistance in the past 6 months</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>All members of the household have legal residency</t>
+  </si>
+  <si>
+    <t>At least one member in the household has legal residency</t>
+  </si>
+  <si>
+    <t>No member of the household has legal residency</t>
+  </si>
+  <si>
+    <t>Crosstabulation between household legal residency status and receiving primary health care</t>
+  </si>
+  <si>
+    <t>Crosstabulation between household legal residency status and receiving hospital health care</t>
+  </si>
+  <si>
+    <t>Crosstabulation between type of community interactions and receiving primary health care</t>
+  </si>
+  <si>
+    <t>Households that received the required hospital health care assistance in the past 6 months</t>
+  </si>
+  <si>
+    <t>Crosstabulation between type of community interactions and receiving hospital health care</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %</t>
+  </si>
+  <si>
+    <t>Crosstabulation between having a card to withdraw cash or buy food and receiving primary health care</t>
+  </si>
+  <si>
+    <t>Crosstabulation between having a card to withdraw cash or buy food and receiving hospital health care</t>
   </si>
 </sst>
 </file>
@@ -164,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="###0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -217,6 +284,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -527,7 +607,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -551,9 +631,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -623,6 +700,48 @@
     <xf numFmtId="165" fontId="6" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -634,48 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -995,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1009,121 +1086,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1148,350 +1225,351 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:H65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+    </row>
+    <row r="2" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+    <row r="3" spans="1:18" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="51"/>
+      <c r="H4" s="47"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>4</v>
+      <c r="H5" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>48.571719219999984</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.13601340585224125</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>308.53807386000045</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>0.86398659414775891</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>357.10979308000037</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>1</v>
       </c>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="A7" s="49"/>
+      <c r="B7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17">
         <v>255.95582711300005</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>9.711114393367172E-2</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>2379.744018909003</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>0.90288885606632474</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>2635.6998460220125</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>1</v>
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>304.52754633300049</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>0.10175306252500951</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>2688.2820927690204</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>0.89824693747498585</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>2992.8096391020349</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>1</v>
       </c>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>119.74413972399992</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>0.11779448143796445</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>896.8072153330038</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>0.88220551856203466</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>1016.5513550570045</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>1</v>
       </c>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="22">
+      <c r="A10" s="49"/>
+      <c r="B10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21">
         <v>184.78340660899997</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>9.3501648089634543E-2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>1791.474877435995</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>0.90649835191036643</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>1976.2582840449932</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>1</v>
       </c>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>304.52754633300049</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>0.10175306252500951</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>2688.2820927690204</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>0.89824693747498585</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>2992.8096391020349</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>1</v>
       </c>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>184.78340660899997</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>9.3501648089634543E-2</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>1791.474877435995</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>0.90649835191036643</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>1976.2582840449932</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>1</v>
       </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="A13" s="49"/>
+      <c r="B13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
         <v>119.74413972399992</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>0.11779448143796445</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>896.8072153330038</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>0.88220551856203466</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="19">
         <v>1016.5513550570045</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>1</v>
       </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>304.52754633300049</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>0.10175306252500951</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>2688.2820927690204</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>0.89824693747498585</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>2992.8096391020349</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <v>1</v>
       </c>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="A15" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1506,315 +1584,315 @@
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="A17" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
+    <row r="18" spans="1:9" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50" t="s">
+      <c r="F19" s="46"/>
+      <c r="G19" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="51"/>
+      <c r="H19" s="47"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
+    <row r="20" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>4</v>
+      <c r="H20" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>23.579476008</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>0.23427868949200628</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>77.067646695000022</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>0.76572131050799375</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>100.64712270300002</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>1</v>
       </c>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="A22" s="49"/>
+      <c r="B22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17">
         <v>174.86050566499992</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <v>0.18913243637083071</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>749.67950989400174</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="18">
         <v>0.81086756362916812</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <v>924.54001555900277</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>1</v>
       </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>198.43998167299995</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>0.19356464226562042</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>826.74715658900277</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>0.80643535773437813</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>1025.1871382620041</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="24">
         <v>1</v>
       </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>76.360176565999964</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>0.21226071663777549</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>283.38692019099994</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>0.78773928336222443</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="19">
         <v>359.74709675699995</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <v>1</v>
       </c>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="22">
+      <c r="A25" s="49"/>
+      <c r="B25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="21">
         <v>122.07980510699997</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>0.1834572575928804</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>543.36023639799976</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>0.81654274240711788</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <v>665.44004150500086</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="24">
         <v>1</v>
       </c>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>198.43998167299995</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>0.19356464226562042</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>826.74715658900277</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <v>0.80643535773437813</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>1025.1871382620041</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <v>1</v>
       </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>122.07980510699997</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>0.1834572575928804</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>543.36023639799976</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>0.81654274240711788</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <v>665.44004150500086</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="24">
         <v>1</v>
       </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="A28" s="49"/>
+      <c r="B28" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
         <v>76.360176565999964</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>0.21226071663777549</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>283.38692019099994</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>0.78773928336222443</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="19">
         <v>359.74709675699995</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="20">
         <v>1</v>
       </c>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="26">
         <v>198.43998167299995</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="27">
         <v>0.19356464226562042</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <v>826.74715658900277</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>0.80643535773437813</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="28">
         <v>1025.1871382620041</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="29">
         <v>1</v>
       </c>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
+      <c r="A30" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1829,236 +1907,236 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="A32" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
+    <row r="33" spans="1:9" ht="31.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50" t="s">
+      <c r="F34" s="46"/>
+      <c r="G34" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="51"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
+    <row r="35" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>4</v>
+      <c r="H35" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" ht="27" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="A36" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="12">
         <v>13.197021595000001</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>6.8511695357325417E-2</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>179.42734021900006</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="13">
         <v>0.93148830464267451</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <v>192.62436181400008</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <v>1</v>
       </c>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="18">
+      <c r="A37" s="49"/>
+      <c r="B37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="17">
         <v>138.92417702999987</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>9.4678373665552845E-2</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>1328.4032775030009</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>0.90532162633444802</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="19">
         <v>1467.3274545329996</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="20">
         <v>1</v>
       </c>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="22">
+      <c r="A38" s="49"/>
+      <c r="B38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="21">
         <v>136.17350095199993</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="22">
         <v>0.11358375107664</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="23">
         <v>1062.7083783770049</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>0.88641624892336102</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="23">
         <v>1198.8818793290038</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="24">
         <v>1</v>
       </c>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="18">
+      <c r="A39" s="49"/>
+      <c r="B39" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="17">
         <v>11.265713644000002</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <v>9.8654396323717711E-2</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="19">
         <v>102.92801784499994</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="18">
         <v>0.90134560367628258</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="19">
         <v>114.19373148899993</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H39" s="20">
         <v>1</v>
       </c>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="22">
+      <c r="A40" s="49"/>
+      <c r="B40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="21">
         <v>4.9671331120000008</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="22">
         <v>0.1640078005509932</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="23">
         <v>25.318823380999998</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>0.83599219944900693</v>
       </c>
-      <c r="G40" s="24">
+      <c r="G40" s="23">
         <v>30.285956492999993</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="24">
         <v>1</v>
       </c>
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="37"/>
-      <c r="B41" s="26" t="s">
+      <c r="A41" s="50"/>
+      <c r="B41" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <v>304.52754633300049</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="31">
         <v>0.10139719284375376</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="32">
         <v>2698.7858373250219</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="31">
         <v>0.89860280715624175</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="32">
         <v>3003.3133836580359</v>
       </c>
-      <c r="H41" s="34">
+      <c r="H41" s="33">
         <v>1</v>
       </c>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="A42" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2072,395 +2150,395 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+    <row r="44" spans="1:9" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="48"/>
+    <row r="45" spans="1:9" ht="28.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="44"/>
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50" t="s">
+      <c r="F46" s="46"/>
+      <c r="G46" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H46" s="51"/>
+      <c r="H46" s="47"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+    <row r="47" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
       <c r="C47" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>4</v>
+      <c r="H47" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" ht="27" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="13">
+      <c r="A48" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="12">
         <v>11.461846214000001</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <v>0.14719336440525477</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <v>66.407467122999989</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="13">
         <v>0.85280663559474557</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <v>77.869313336999966</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="15">
         <v>1</v>
       </c>
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="18">
+      <c r="A49" s="49"/>
+      <c r="B49" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="17">
         <v>76.285464125000004</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="18">
         <v>0.15692984881703143</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>409.82641771299984</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="18">
         <v>0.84307015118296791</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="19">
         <v>486.11188183800016</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="20">
         <v>1</v>
       </c>
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="22">
+      <c r="A50" s="49"/>
+      <c r="B50" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="21">
         <v>98.027542387999986</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="22">
         <v>0.24293936912248784</v>
       </c>
-      <c r="E50" s="24">
+      <c r="E50" s="23">
         <v>305.47866058799985</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>0.75706063087751163</v>
       </c>
-      <c r="G50" s="24">
+      <c r="G50" s="23">
         <v>403.50620297600005</v>
       </c>
-      <c r="H50" s="25">
+      <c r="H50" s="24">
         <v>1</v>
       </c>
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="18">
+      <c r="A51" s="49"/>
+      <c r="B51" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="17">
         <v>8.852412472000001</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="18">
         <v>0.19585507054658469</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>36.34637889599999</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="18">
         <v>0.80414492945341531</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G51" s="19">
         <v>45.198791367999988</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="20">
         <v>1</v>
       </c>
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="22">
+      <c r="A52" s="49"/>
+      <c r="B52" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="21">
         <v>3.8127164739999997</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="22">
         <v>0.22627101560350155</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="23">
         <v>13.037503886000003</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>0.7737289843964984</v>
       </c>
-      <c r="G52" s="24">
+      <c r="G52" s="23">
         <v>16.850220360000002</v>
       </c>
-      <c r="H52" s="25">
+      <c r="H52" s="24">
         <v>1</v>
       </c>
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="26" t="s">
+      <c r="A53" s="50"/>
+      <c r="B53" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="30">
         <v>198.43998167299995</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="31">
         <v>0.19274692936437429</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="32">
         <v>831.09642820600266</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="31">
         <v>0.80725307063562401</v>
       </c>
-      <c r="G53" s="33">
+      <c r="G53" s="32">
         <v>1029.5364098790044</v>
       </c>
-      <c r="H53" s="34">
+      <c r="H53" s="33">
         <v>1</v>
       </c>
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="A54" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="56" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="39" t="s">
+    <row r="56" spans="1:9" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" ht="27.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="37"/>
+      <c r="C57" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50" t="s">
+      <c r="F58" s="46"/>
+      <c r="G58" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H58" s="51"/>
+      <c r="H58" s="47"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="44"/>
-      <c r="B59" s="45"/>
+    <row r="59" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>4</v>
+      <c r="H59" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="13">
+      <c r="A60" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="12">
         <v>775.71431594200499</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="13">
         <v>0.11811805050792885</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="14">
         <v>5791.5657281011318</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="13">
         <v>0.88188194949206533</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="14">
         <v>6567.2800440431747</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="15">
         <v>1</v>
       </c>
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="17" t="s">
+      <c r="A61" s="49"/>
+      <c r="B61" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="17">
         <v>675.63679467200234</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="18">
         <v>8.3113773230961835E-2</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="19">
         <v>7453.4225466059606</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61" s="18">
         <v>0.91688622676904741</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="19">
         <v>8129.0593412778881</v>
       </c>
-      <c r="H61" s="21">
+      <c r="H61" s="20">
         <v>1</v>
       </c>
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
-      <c r="B62" s="26" t="s">
+      <c r="A62" s="50"/>
+      <c r="B62" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="27">
+      <c r="C62" s="26">
         <v>1451.3511106140015</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D62" s="27">
         <v>9.8755960417168401E-2</v>
       </c>
-      <c r="E62" s="29">
+      <c r="E62" s="28">
         <v>13244.988274706729</v>
       </c>
-      <c r="F62" s="28">
+      <c r="F62" s="27">
         <v>0.9012440395828355</v>
       </c>
-      <c r="G62" s="29">
+      <c r="G62" s="28">
         <v>14696.339385320674</v>
       </c>
-      <c r="H62" s="30">
+      <c r="H62" s="29">
         <v>1</v>
       </c>
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
+      <c r="A63" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2474,209 +2552,166 @@
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
+    <row r="65" spans="1:9" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+    <row r="66" spans="1:9" ht="30.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="37"/>
+      <c r="C66" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50" t="s">
+      <c r="F67" s="46"/>
+      <c r="G67" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H67" s="51"/>
+      <c r="H67" s="47"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="44"/>
-      <c r="B68" s="45"/>
+    <row r="68" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="40"/>
+      <c r="B68" s="41"/>
       <c r="C68" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>4</v>
+      <c r="H68" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="13">
+      <c r="A69" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="12">
         <v>511.32932605500031</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="13">
         <v>0.19616693648959757</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="14">
         <v>2095.2736785349907</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="13">
         <v>0.80383306351039996</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="14">
         <v>2606.6030045899979</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H69" s="15">
         <v>1</v>
       </c>
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="17" t="s">
+      <c r="A70" s="49"/>
+      <c r="B70" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="17">
         <v>412.13859701499928</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="18">
         <v>0.16182397987415345</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="19">
         <v>2134.6940623689975</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F70" s="18">
         <v>0.83817602012583037</v>
       </c>
-      <c r="G70" s="20">
+      <c r="G70" s="19">
         <v>2546.8326593840379</v>
       </c>
-      <c r="H70" s="21">
+      <c r="H70" s="20">
         <v>1</v>
       </c>
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="37"/>
-      <c r="B71" s="26" t="s">
+      <c r="A71" s="50"/>
+      <c r="B71" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="27">
+      <c r="C71" s="26">
         <v>923.4679230700026</v>
       </c>
-      <c r="D71" s="28">
+      <c r="D71" s="27">
         <v>0.17919461564750785</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="28">
         <v>4229.9677409041024</v>
       </c>
-      <c r="F71" s="28">
+      <c r="F71" s="27">
         <v>0.82080538435248851</v>
       </c>
-      <c r="G71" s="29">
+      <c r="G71" s="28">
         <v>5153.4356639741236</v>
       </c>
-      <c r="H71" s="30">
+      <c r="H71" s="29">
         <v>1</v>
       </c>
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
+      <c r="A72" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
       <c r="I72" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A33:B35"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:B47"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:B59"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A72:H72"/>
     <mergeCell ref="A60:A62"/>
@@ -2687,24 +2722,59 @@
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:B59"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:B47"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:B35"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:R1" location="'Analysis Plan'!A1" display="Return to analysis plan"/>
+    <hyperlink ref="A1:R1" location="Ref" display="Return to analysis plan"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6B7D25836F67646A98C66F1CDD61673" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c52d6cab250df69c2bdfed776df9ffc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6df68d03-0d94-44b1-a9a2-765e7690f201" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8c761c4bf2ce1df6029c896e91e76d8" ns3:_="">
     <xsd:import namespace="6df68d03-0d94-44b1-a9a2-765e7690f201"/>
@@ -2868,6 +2938,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2875,14 +2954,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43CE09D-A109-40CD-A250-DB82FF5CE1D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C89FE1-E29B-4B66-BAA0-A9FAD1550842}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2896,6 +2967,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B43CE09D-A109-40CD-A250-DB82FF5CE1D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
